--- a/Problem1/Data.xlsx
+++ b/Problem1/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -51,16 +51,24 @@
   </si>
   <si>
     <t xml:space="preserve">Dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Canteen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="hh:mm"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -128,11 +136,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -142,6 +154,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,68 +185,68 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.104166666666667</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>45197</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.363194444444444</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>0.383333333333333</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -246,58 +266,136 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>45201</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.615277777777778</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.626388888888889</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.929861111111111</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.945833333333333</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.403472222222222</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.418055555555556</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.63125</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.849305555555556</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.869444444444444</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
